--- a/autolist.xlsx
+++ b/autolist.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D919FD-D058-4B1F-91E0-C48BF724ABEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="160">
   <si>
     <t>01.Application</t>
   </si>
@@ -507,7 +508,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,25 +902,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="107.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>155</v>
       </c>
@@ -941,14 +942,16 @@
       <c r="G1" s="2"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>158</v>
       </c>
@@ -959,12 +962,14 @@
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>158</v>
       </c>
@@ -975,7 +980,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -991,12 +996,14 @@
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>158</v>
       </c>
@@ -1007,12 +1014,14 @@
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>158</v>
       </c>
@@ -1023,12 +1032,14 @@
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>158</v>
       </c>
@@ -1039,12 +1050,14 @@
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>158</v>
       </c>
@@ -1055,12 +1068,14 @@
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>158</v>
       </c>
@@ -1071,7 +1086,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -1087,7 +1102,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -1105,7 +1120,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
         <v>14</v>
@@ -1123,7 +1138,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
@@ -1141,7 +1156,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>89</v>
       </c>
@@ -1159,7 +1174,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>90</v>
@@ -1175,7 +1190,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="6" t="s">
         <v>91</v>
@@ -1191,7 +1206,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>92</v>
@@ -1207,7 +1222,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="6" t="s">
         <v>93</v>
@@ -1223,7 +1238,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>94</v>
@@ -1239,7 +1254,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="6" t="s">
         <v>95</v>
@@ -1255,7 +1270,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>96</v>
       </c>
@@ -1275,7 +1290,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>98</v>
@@ -1293,7 +1308,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
         <v>99</v>
@@ -1311,7 +1326,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
         <v>100</v>
@@ -1329,7 +1344,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>101</v>
@@ -1347,7 +1362,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
         <v>102</v>
@@ -1365,7 +1380,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>103</v>
@@ -1383,7 +1398,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>104</v>
@@ -1401,7 +1416,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
         <v>105</v>
@@ -1419,7 +1434,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>106</v>
@@ -1437,7 +1452,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>107</v>
       </c>
@@ -1455,7 +1470,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
         <v>109</v>
@@ -1471,7 +1486,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="6" t="s">
         <v>110</v>
@@ -1487,7 +1502,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
         <v>111</v>
@@ -1503,7 +1518,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>112</v>
@@ -1519,7 +1534,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>113</v>
@@ -1535,7 +1550,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>114</v>
@@ -1551,7 +1566,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="6" t="s">
         <v>115</v>
@@ -1567,7 +1582,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>116</v>
       </c>
@@ -1585,7 +1600,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>118</v>
@@ -1601,7 +1616,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="6" t="s">
         <v>119</v>
@@ -1617,7 +1632,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>120</v>
@@ -1633,7 +1648,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
         <v>121</v>
@@ -1649,7 +1664,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="6" t="s">
         <v>122</v>
@@ -1665,7 +1680,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="6" t="s">
         <v>123</v>
@@ -1681,7 +1696,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="6" t="s">
         <v>124</v>
@@ -1697,7 +1712,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
         <v>125</v>
@@ -1713,7 +1728,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>126</v>
@@ -1729,7 +1744,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
         <v>127</v>
@@ -1745,7 +1760,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
         <v>128</v>
@@ -1761,7 +1776,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
         <v>129</v>
@@ -1777,7 +1792,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
         <v>130</v>
@@ -1793,7 +1808,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
         <v>131</v>
@@ -1809,7 +1824,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="6" t="s">
         <v>132</v>
@@ -1825,7 +1840,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
         <v>133</v>
@@ -1841,7 +1856,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
         <v>134</v>
@@ -1857,7 +1872,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
         <v>135</v>
@@ -1873,7 +1888,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
         <v>153</v>
@@ -1889,7 +1904,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>136</v>
       </c>
@@ -1907,7 +1922,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
         <v>138</v>
@@ -1923,7 +1938,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="6" t="s">
         <v>139</v>
@@ -1939,7 +1954,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
         <v>140</v>
@@ -1955,7 +1970,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
@@ -1973,7 +1988,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="6" t="s">
         <v>142</v>
@@ -1989,7 +2004,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="4" t="s">
         <v>143</v>
@@ -2005,7 +2020,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="6" t="s">
         <v>144</v>
@@ -2021,7 +2036,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
         <v>145</v>
@@ -2037,7 +2052,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
         <v>146</v>
@@ -2053,7 +2068,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
         <v>147</v>
@@ -2069,7 +2084,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
@@ -2087,7 +2102,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
         <v>149</v>
@@ -2103,7 +2118,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
         <v>150</v>
@@ -2119,7 +2134,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>17</v>
       </c>
@@ -2139,7 +2154,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="4" t="s">
         <v>19</v>
@@ -2157,7 +2172,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
         <v>20</v>
@@ -2175,7 +2190,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="4" t="s">
         <v>21</v>
@@ -2193,7 +2208,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>35</v>
       </c>
@@ -2213,7 +2228,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
         <v>23</v>
@@ -2231,7 +2246,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="4" t="s">
         <v>24</v>
@@ -2249,7 +2264,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="4" t="s">
         <v>25</v>
@@ -2267,7 +2282,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
         <v>26</v>
@@ -2285,7 +2300,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="4" t="s">
         <v>27</v>
@@ -2303,7 +2318,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="4" t="s">
         <v>28</v>
@@ -2321,7 +2336,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
         <v>29</v>
@@ -2339,7 +2354,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>36</v>
       </c>
@@ -2359,7 +2374,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="4" t="s">
         <v>34</v>
@@ -2377,7 +2392,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>37</v>
       </c>
@@ -2397,7 +2412,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
         <v>39</v>
@@ -2415,7 +2430,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>40</v>
       </c>
@@ -2435,7 +2450,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="4" t="s">
         <v>42</v>
@@ -2453,7 +2468,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="4" t="s">
         <v>43</v>
@@ -2471,7 +2486,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="4" t="s">
         <v>44</v>
@@ -2489,7 +2504,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>45</v>
       </c>
@@ -2509,7 +2524,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
         <v>46</v>
@@ -2527,7 +2542,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="4" t="s">
         <v>47</v>
@@ -2545,7 +2560,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="6" t="s">
         <v>48</v>
@@ -2563,7 +2578,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="4" t="s">
         <v>49</v>
@@ -2581,7 +2596,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="4" t="s">
         <v>50</v>
@@ -2599,7 +2614,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="6" t="s">
         <v>51</v>
@@ -2617,7 +2632,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="6" t="s">
         <v>52</v>
@@ -2635,7 +2650,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="6" t="s">
         <v>53</v>
@@ -2653,7 +2668,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="6" t="s">
         <v>152</v>
@@ -2671,7 +2686,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>55</v>
       </c>
@@ -2691,7 +2706,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>56</v>
       </c>
@@ -2711,7 +2726,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="4" t="s">
         <v>62</v>
@@ -2729,7 +2744,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>63</v>
       </c>
@@ -2749,7 +2764,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="4" t="s">
         <v>58</v>
@@ -2767,7 +2782,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="6" t="s">
         <v>59</v>
@@ -2785,7 +2800,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>60</v>
       </c>
@@ -2805,7 +2820,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="6" t="s">
         <v>65</v>
@@ -2823,7 +2838,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="4" t="s">
         <v>66</v>
@@ -2841,7 +2856,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="4" t="s">
         <v>67</v>
@@ -2859,7 +2874,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="6" t="s">
         <v>68</v>
@@ -2877,7 +2892,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="6" t="s">
         <v>69</v>
@@ -2895,7 +2910,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="6" t="s">
         <v>70</v>
@@ -2913,7 +2928,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="6" t="s">
         <v>71</v>
@@ -2931,7 +2946,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="4" t="s">
         <v>72</v>
@@ -2949,7 +2964,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="6" t="s">
         <v>73</v>
@@ -2967,7 +2982,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="4" t="s">
         <v>74</v>
@@ -2985,7 +3000,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="4" t="s">
         <v>75</v>
@@ -3003,7 +3018,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="6" t="s">
         <v>76</v>
@@ -3021,7 +3036,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="6" t="s">
         <v>77</v>
@@ -3039,7 +3054,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="6" t="s">
         <v>78</v>
@@ -3057,7 +3072,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="6" t="s">
         <v>79</v>
@@ -3075,7 +3090,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="6" t="s">
         <v>80</v>
@@ -3093,7 +3108,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="4" t="s">
         <v>81</v>
@@ -3111,7 +3126,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="4" t="s">
         <v>82</v>
@@ -3129,7 +3144,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="4" t="s">
         <v>83</v>
@@ -3147,7 +3162,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="4" t="s">
         <v>84</v>
@@ -3165,7 +3180,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="4" t="s">
         <v>85</v>
@@ -3183,7 +3198,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="4" t="s">
         <v>86</v>
@@ -3201,14 +3216,14 @@
       <c r="G131" s="2"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <sortState ref="C133:C138">
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C133:C138">
     <sortCondition ref="C133"/>
   </sortState>
   <conditionalFormatting sqref="B134">

--- a/autolist.xlsx
+++ b/autolist.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D919FD-D058-4B1F-91E0-C48BF724ABEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9A942F-160A-44DB-91D4-D43D578933FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$131</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="161">
   <si>
     <t>01.Application</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>covered</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +537,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -606,6 +621,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -906,8 +939,8 @@
   <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,15 +1014,17 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="C4" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="12">
         <v>0</v>
       </c>
       <c r="F4" s="5"/>
@@ -1091,7 +1126,9 @@
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>158</v>
       </c>
@@ -1103,17 +1140,17 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="10">
         <v>2</v>
       </c>
       <c r="F11" s="5"/>
@@ -1121,17 +1158,17 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="10">
         <v>2</v>
       </c>
       <c r="F12" s="5"/>
@@ -1144,7 +1181,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>158</v>
@@ -1163,7 +1200,9 @@
       <c r="B14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>158</v>
       </c>
@@ -1179,7 +1218,9 @@
       <c r="B15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>158</v>
       </c>
@@ -1191,11 +1232,13 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="7" t="s">
         <v>158</v>
       </c>
@@ -1211,7 +1254,9 @@
       <c r="B17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>158</v>
       </c>
@@ -1223,11 +1268,13 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D18" s="7" t="s">
         <v>158</v>
       </c>
@@ -1239,15 +1286,17 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="8">
         <v>2</v>
       </c>
       <c r="F19" s="5"/>
@@ -1255,11 +1304,13 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D20" s="7" t="s">
         <v>158</v>
       </c>
@@ -1487,7 +1538,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="6" t="s">
         <v>110</v>
       </c>
@@ -1519,15 +1570,17 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="C35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="10">
         <v>2</v>
       </c>
       <c r="F35" s="5"/>
@@ -1535,15 +1588,17 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="C36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="10">
         <v>2</v>
       </c>
       <c r="F36" s="5"/>
@@ -1567,7 +1622,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="6" t="s">
         <v>115</v>
       </c>
@@ -1617,7 +1672,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="6" t="s">
         <v>119</v>
       </c>
@@ -1653,7 +1708,9 @@
       <c r="B43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D43" s="5" t="s">
         <v>158</v>
       </c>
@@ -1665,7 +1722,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="6" t="s">
         <v>122</v>
       </c>
@@ -1681,7 +1738,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="6" t="s">
         <v>123</v>
       </c>
@@ -1697,11 +1754,13 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D46" s="7" t="s">
         <v>158</v>
       </c>
@@ -1717,7 +1776,9 @@
       <c r="B47" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D47" s="5" t="s">
         <v>158</v>
       </c>
@@ -1733,7 +1794,9 @@
       <c r="B48" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D48" s="5" t="s">
         <v>158</v>
       </c>
@@ -1745,15 +1808,17 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="C49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="10">
         <v>2</v>
       </c>
       <c r="F49" s="5"/>
@@ -1761,15 +1826,17 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E50" s="4">
+      <c r="C50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="10">
         <v>3</v>
       </c>
       <c r="F50" s="5"/>
@@ -1781,7 +1848,9 @@
       <c r="B51" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D51" s="5" t="s">
         <v>158</v>
       </c>
@@ -1797,7 +1866,9 @@
       <c r="B52" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D52" s="5" t="s">
         <v>158</v>
       </c>
@@ -1813,7 +1884,9 @@
       <c r="B53" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D53" s="5" t="s">
         <v>158</v>
       </c>
@@ -1825,7 +1898,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="6" t="s">
         <v>132</v>
       </c>
@@ -1939,7 +2012,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="6" t="s">
         <v>139</v>
       </c>
@@ -2392,7 +2465,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>37</v>
       </c>
@@ -2430,7 +2503,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>40</v>
       </c>
@@ -2504,7 +2577,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>45</v>
       </c>
@@ -3222,7 +3295,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C133:C138">
     <sortCondition ref="C133"/>
   </sortState>

--- a/autolist.xlsx
+++ b/autolist.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CB9CC5-40C7-42E2-A6C9-D407FA7986DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="192">
   <si>
     <t>Feature</t>
   </si>
@@ -590,172 +596,25 @@
   </si>
   <si>
     <t>23.Verify DisplayUsername works well</t>
+  </si>
+  <si>
+    <t>task_onoff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,192 +647,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1016,253 +695,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1291,88 +728,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1381,6 +776,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1638,29 +1036,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="95.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="14.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="9.88333333333333" customWidth="1"/>
-    <col min="7" max="7" width="43.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="95.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1885,7 +1283,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" hidden="1" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>29</v>
@@ -1904,7 +1302,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" hidden="1" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
@@ -1923,7 +1321,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" ht="20.4" customHeight="1" spans="1:9">
+    <row r="13" spans="1:9" ht="20.399999999999999" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>32</v>
@@ -2028,7 +1426,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" hidden="1" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>43</v>
@@ -2047,7 +1445,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" hidden="1" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
         <v>44</v>
@@ -2066,7 +1464,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" hidden="1" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>45</v>
@@ -2085,7 +1483,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" hidden="1" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -2106,7 +1504,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" hidden="1" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>48</v>
@@ -2125,7 +1523,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" hidden="1" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
         <v>49</v>
@@ -2144,7 +1542,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" hidden="1" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
         <v>50</v>
@@ -2163,7 +1561,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" hidden="1" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>51</v>
@@ -2182,7 +1580,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" hidden="1" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
         <v>52</v>
@@ -2201,7 +1599,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" hidden="1" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>53</v>
@@ -2220,7 +1618,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" hidden="1" spans="1:9">
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>54</v>
@@ -2239,7 +1637,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" hidden="1" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
         <v>55</v>
@@ -2258,7 +1656,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" ht="9.6" customHeight="1" spans="1:9">
+    <row r="30" spans="1:9" ht="9.6" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>56</v>
@@ -2359,7 +1757,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" hidden="1" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
         <v>65</v>
@@ -2378,7 +1776,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" hidden="1" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
         <v>66</v>
@@ -2570,7 +1968,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" hidden="1" spans="1:9">
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" s="5"/>
       <c r="B46" s="6" t="s">
         <v>81</v>
@@ -2627,7 +2025,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" hidden="1" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
         <v>84</v>
@@ -2646,7 +2044,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" hidden="1" spans="1:9">
+    <row r="50" spans="1:9" hidden="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
         <v>85</v>
@@ -3193,7 +2591,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="8"/>
     </row>
-    <row r="79" hidden="1" spans="1:9">
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
         <v>123</v>
@@ -3315,7 +2713,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="8"/>
     </row>
-    <row r="85" ht="28.5" spans="1:9">
+    <row r="85" spans="1:9" ht="28.8">
       <c r="A85" s="1" t="s">
         <v>133</v>
       </c>
@@ -3361,17 +2759,17 @@
       <c r="A87" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="2">
+      <c r="C87" s="16"/>
+      <c r="D87" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="16">
         <v>2</v>
       </c>
       <c r="G87" s="2"/>
@@ -3380,17 +2778,17 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1"/>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="2">
+      <c r="C88" s="16"/>
+      <c r="D88" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="16">
         <v>2</v>
       </c>
       <c r="G88" s="2"/>
@@ -3405,9 +2803,7 @@
         <v>141</v>
       </c>
       <c r="C89" s="6"/>
-      <c r="D89" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="D89" s="14"/>
       <c r="E89" s="14" t="s">
         <v>12</v>
       </c>
@@ -3456,26 +2852,26 @@
       <c r="H91" s="3"/>
       <c r="I91" s="8"/>
     </row>
-    <row r="92" hidden="1" spans="1:9">
+    <row r="92" spans="1:9">
       <c r="A92" s="1"/>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="2">
+      <c r="C92" s="16"/>
+      <c r="D92" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="16">
         <v>2</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="3"/>
       <c r="I92" s="8"/>
     </row>
-    <row r="93" hidden="1" spans="1:9">
+    <row r="93" spans="1:9" ht="12" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>146</v>
       </c>
@@ -3648,7 +3044,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="8"/>
     </row>
-    <row r="102" hidden="1" spans="1:9">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" s="1"/>
       <c r="B102" s="6" t="s">
         <v>156</v>
@@ -3667,7 +3063,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="8"/>
     </row>
-    <row r="103" ht="28.5" spans="1:9">
+    <row r="103" spans="1:9" ht="28.8">
       <c r="A103" s="1" t="s">
         <v>157</v>
       </c>
@@ -3688,7 +3084,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="8"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" ht="28.8">
       <c r="A104" s="1" t="s">
         <v>159</v>
       </c>
@@ -3735,7 +3131,9 @@
       <c r="B106" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="D106" s="10" t="s">
         <v>143</v>
       </c>
@@ -4228,32 +3626,31 @@
       <c r="H131" s="3"/>
       <c r="I131" s="8"/>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="1:9">
       <c r="B134">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F131">
+  <autoFilter ref="A1:F131" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters blank="1">
+        <filter val="Completed"/>
+        <filter val="covered"/>
         <filter val="Planning-1"/>
         <filter val="Planning-2"/>
         <filter val="Planning-3"/>
-        <filter val="Completed"/>
-        <filter val="covered"/>
       </filters>
     </filterColumn>
-    <extLst/>
   </autoFilter>
-  <sortState ref="D133:D138">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D133:D138">
     <sortCondition ref="D133"/>
   </sortState>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
       <formula>50</formula>
       <formula>80</formula>
     </cfRule>
@@ -4269,7 +3666,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/autolist.xlsx
+++ b/autolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CB9CC5-40C7-42E2-A6C9-D407FA7986DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC0776A-A744-4B01-B161-9812F5C3539D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1046,8 +1046,8 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3044,7 +3044,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="8"/>
     </row>
-    <row r="102" spans="1:9" hidden="1">
+    <row r="102" spans="1:9" ht="13.2" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="6" t="s">
         <v>156</v>
@@ -3134,11 +3134,11 @@
       <c r="C106" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D106" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>12</v>
+      <c r="D106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F106" s="2">
         <v>2</v>
@@ -3158,8 +3158,8 @@
       <c r="D107" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E107" s="10" t="s">
-        <v>12</v>
+      <c r="E107" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F107" s="2">
         <v>2</v>
@@ -3237,7 +3237,7 @@
         <v>143</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F111" s="2">
         <v>2</v>
@@ -3256,7 +3256,7 @@
         <v>143</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F112" s="2">
         <v>3</v>
@@ -3351,7 +3351,7 @@
         <v>143</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F117" s="2">
         <v>3</v>

--- a/autolist.xlsx
+++ b/autolist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC0776A-A744-4B01-B161-9812F5C3539D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51EC576-F7A4-47B2-8CDB-44C579F6ECBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="196">
   <si>
     <t>Feature</t>
   </si>
@@ -599,6 +599,18 @@
   </si>
   <si>
     <t>task_onoff</t>
+  </si>
+  <si>
+    <t>settings_background</t>
+  </si>
+  <si>
+    <t>easyshell_integrated_tool</t>
+  </si>
+  <si>
+    <t>easyshell_launch</t>
+  </si>
+  <si>
+    <t>import_export</t>
   </si>
 </sst>
 </file>
@@ -614,7 +626,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,31 +635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,58 +687,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,2607 +1004,2607 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="95.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30" style="5" customWidth="1"/>
+    <col min="2" max="2" width="95.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="8"/>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="11" t="s">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="11" t="s">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="8"/>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="11" t="s">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="8"/>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="8"/>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" hidden="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" hidden="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.399999999999999" customHeight="1">
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.45" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
         <v>3</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="8"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="8"/>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="8"/>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="8"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" hidden="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" hidden="1">
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="7">
         <v>2</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" hidden="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="6">
-        <v>2</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" hidden="1">
-      <c r="A21" s="6" t="s">
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="6">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" hidden="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="6">
-        <v>2</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" hidden="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="6">
-        <v>2</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" hidden="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="6">
-        <v>2</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" hidden="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="6">
-        <v>2</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" hidden="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" hidden="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" hidden="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="14" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="6">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" hidden="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="6">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="8"/>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="9.6" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="14" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="6">
-        <v>2</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="8"/>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="8"/>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1"/>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="8"/>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="8"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1"/>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1">
         <v>3</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" hidden="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5" t="s">
+      <c r="G34" s="1"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="5">
-        <v>2</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" hidden="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="s">
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="1"/>
+      <c r="D36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="5">
-        <v>2</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="8"/>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1"/>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="2">
-        <v>2</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="8"/>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="14" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="6">
-        <v>2</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="8"/>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="2">
-        <v>2</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="8"/>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1"/>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="2">
-        <v>2</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="8"/>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1">
         <v>1</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="8"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1"/>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1">
         <v>3</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="8"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1"/>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="1"/>
+      <c r="D43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2">
-        <v>2</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="8"/>
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="6">
-        <v>2</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="8"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="6">
-        <v>2</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" hidden="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6" t="s">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="14" t="s">
+      <c r="C46" s="1"/>
+      <c r="D46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="6">
-        <v>2</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="8"/>
+      <c r="E46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1"/>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="10" t="s">
+      <c r="C47" s="1"/>
+      <c r="D47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="E47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="1">
         <v>3</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="8"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="10" t="s">
+      <c r="C48" s="1"/>
+      <c r="D48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="2">
-        <v>2</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="1:9" hidden="1">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5" t="s">
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="13" t="s">
+      <c r="C49" s="1"/>
+      <c r="D49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="5">
-        <v>2</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:9" hidden="1">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="13" t="s">
+      <c r="C50" s="1"/>
+      <c r="D50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="5">
+      <c r="E50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1">
         <v>3</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="8"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="10" t="s">
+      <c r="C51" s="1"/>
+      <c r="D51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="2">
-        <v>2</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="8"/>
+      <c r="E51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="1"/>
+      <c r="D52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="2">
-        <v>2</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="8"/>
+      <c r="E52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="10" t="s">
+      <c r="C53" s="1"/>
+      <c r="D53" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="1">
         <v>3</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="8"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="6">
-        <v>2</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="8"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="1">
         <v>3</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="8"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="2">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="1">
         <v>3</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="8"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="2">
-        <v>2</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="8"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1">
         <v>3</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="8"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="2">
-        <v>2</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="8"/>
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="2">
-        <v>2</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="8"/>
+      <c r="D60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6" t="s">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="6">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1">
         <v>0</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="8"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="2">
+      <c r="D62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="1">
         <v>3</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="8"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="4"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="6">
-        <v>2</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="8"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="4"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="6">
-        <v>2</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="8"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="13" t="s">
+      <c r="C65" s="1"/>
+      <c r="D65" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="5">
-        <v>2</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="8"/>
+      <c r="E65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1"/>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="6">
-        <v>2</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="8"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="4"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1"/>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="13" t="s">
+      <c r="C67" s="1"/>
+      <c r="D67" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="5">
-        <v>2</v>
-      </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="8"/>
+      <c r="E67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="4"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1"/>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="10" t="s">
+      <c r="C68" s="1"/>
+      <c r="D68" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2">
-        <v>2</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="8"/>
+      <c r="E68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1"/>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="2">
+      <c r="E69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="1">
         <v>3</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="8"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="10" t="s">
+      <c r="C70" s="1"/>
+      <c r="D70" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="2">
-        <v>2</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="8"/>
+      <c r="E70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="4"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1"/>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="10" t="s">
+      <c r="C71" s="1"/>
+      <c r="D71" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E71" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="2">
-        <v>2</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="8"/>
+      <c r="E71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1"/>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="10" t="s">
+      <c r="C72" s="1"/>
+      <c r="D72" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E72" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2">
-        <v>2</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="8"/>
+      <c r="E72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="4"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="2">
+      <c r="C73" s="1"/>
+      <c r="D73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="1">
         <v>1</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="8"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="4"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1"/>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="2">
-        <v>2</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="8"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="4"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1"/>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="2">
-        <v>2</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="8"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1"/>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="2">
-        <v>2</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="8"/>
+      <c r="C76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="4"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="2">
-        <v>2</v>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="8"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="4"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1"/>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="13" t="s">
+      <c r="C78" s="1"/>
+      <c r="D78" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="5">
-        <v>2</v>
-      </c>
-      <c r="G78" s="13" t="s">
+      <c r="E78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="8"/>
-    </row>
-    <row r="79" spans="1:9" hidden="1">
+      <c r="H78" s="6"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1"/>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="10" t="s">
+      <c r="C79" s="1"/>
+      <c r="D79" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="2">
+      <c r="E79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="1">
         <v>3</v>
       </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="8"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1"/>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D80" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="2">
-        <v>2</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="8"/>
+      <c r="D80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1"/>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="2">
-        <v>2</v>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="8"/>
+      <c r="D81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="1">
+        <v>2</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1"/>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D82" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="2">
+      <c r="D82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="1">
         <v>1</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="8"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1"/>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="2">
+      <c r="D83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="1">
         <v>3</v>
       </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="8"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="4"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1"/>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="13" t="s">
+      <c r="C84" s="1"/>
+      <c r="D84" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E84" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="5">
-        <v>2</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="8"/>
-    </row>
-    <row r="85" spans="1:9" ht="28.8">
+      <c r="E84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" ht="30">
       <c r="A85" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="14" t="s">
+      <c r="C85" s="1"/>
+      <c r="D85" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E85" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="6">
+      <c r="E85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="1">
         <v>1</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="8"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1"/>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="2">
-        <v>2</v>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="8"/>
+      <c r="D86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="17" t="s">
+      <c r="C87" s="1"/>
+      <c r="D87" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E87" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="16">
-        <v>2</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="8"/>
+      <c r="E87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="4"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1"/>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="17" t="s">
+      <c r="C88" s="1"/>
+      <c r="D88" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E88" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="16">
-        <v>2</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="8"/>
+      <c r="E88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="6">
+      <c r="C89" s="1"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="1">
         <v>1</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="8"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1"/>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="10" t="s">
+      <c r="C90" s="1"/>
+      <c r="D90" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E90" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="2">
-        <v>2</v>
-      </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="8"/>
+      <c r="E90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="1">
+        <v>2</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="4"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1"/>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="10" t="s">
+      <c r="C91" s="1"/>
+      <c r="D91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E91" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="2">
-        <v>2</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="8"/>
+      <c r="E91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="1">
+        <v>2</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="4"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1"/>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="17" t="s">
+      <c r="C92" s="1"/>
+      <c r="D92" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E92" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="16">
-        <v>2</v>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="8"/>
+      <c r="E92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="4"/>
     </row>
     <row r="93" spans="1:9" ht="12" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="14" t="s">
+      <c r="C93" s="1"/>
+      <c r="D93" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E93" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="6">
+      <c r="E93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="1">
         <v>1</v>
       </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="8"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="4"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1"/>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="10" t="s">
+      <c r="C94" s="1"/>
+      <c r="D94" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="2">
-        <v>2</v>
-      </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="8"/>
+      <c r="E94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="4"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1"/>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="10" t="s">
+      <c r="C95" s="1"/>
+      <c r="D95" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="2">
-        <v>2</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="8"/>
+      <c r="E95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="1">
+        <v>2</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="4"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1"/>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C96" s="9"/>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="6">
-        <v>2</v>
-      </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="8"/>
+      <c r="E96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="4"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1"/>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="10" t="s">
+      <c r="C97" s="1"/>
+      <c r="D97" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E97" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="2">
-        <v>2</v>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="8"/>
+      <c r="E97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="4"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1"/>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="10" t="s">
+      <c r="C98" s="1"/>
+      <c r="D98" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E98" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="2">
-        <v>2</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="8"/>
+      <c r="E98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="1">
+        <v>2</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1"/>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="14" t="s">
+      <c r="C99" s="1"/>
+      <c r="D99" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E99" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="6">
-        <v>2</v>
-      </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="8"/>
+      <c r="E99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="4"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1"/>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="14" t="s">
+      <c r="C100" s="1"/>
+      <c r="D100" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E100" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="6">
+      <c r="E100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="1">
         <v>3</v>
       </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="8"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="4"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1"/>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="14" t="s">
+      <c r="C101" s="1"/>
+      <c r="D101" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E101" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="6">
-        <v>2</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="8"/>
-    </row>
-    <row r="102" spans="1:9" ht="13.2" customHeight="1">
+      <c r="E101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="1">
+        <v>2</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:9" ht="13.15" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="14" t="s">
+      <c r="C102" s="1"/>
+      <c r="D102" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E102" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="6">
-        <v>2</v>
-      </c>
-      <c r="G102" s="2"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="8"/>
-    </row>
-    <row r="103" spans="1:9" ht="28.8">
+      <c r="E102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="1">
+        <v>2</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="1:9" ht="30">
       <c r="A103" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="14" t="s">
+      <c r="C103" s="1"/>
+      <c r="D103" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E103" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="6">
-        <v>2</v>
-      </c>
-      <c r="G103" s="2"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="8"/>
-    </row>
-    <row r="104" spans="1:9" ht="28.8">
+      <c r="E103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="1">
+        <v>2</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="4"/>
+    </row>
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="10" t="s">
+      <c r="C104" s="1"/>
+      <c r="D104" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E104" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="2">
-        <v>2</v>
-      </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="8"/>
+      <c r="E104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="1">
+        <v>2</v>
+      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="4"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1"/>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="10" t="s">
+      <c r="C105" s="1"/>
+      <c r="D105" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E105" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="2">
-        <v>2</v>
-      </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="8"/>
+      <c r="E105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="1">
+        <v>2</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="4"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="2">
-        <v>2</v>
-      </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="8"/>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="D106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="1">
+        <v>2</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" spans="1:9" ht="30">
       <c r="A107" s="1"/>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="2">
-        <v>2</v>
-      </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="8"/>
+      <c r="D107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2</v>
+      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="4"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1"/>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="14" t="s">
+      <c r="C108" s="1"/>
+      <c r="D108" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E108" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="6">
-        <v>2</v>
-      </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="8"/>
+      <c r="E108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2</v>
+      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="4"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="6">
+      <c r="C109" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="1">
         <v>0</v>
       </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="8"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="4"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1"/>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="6">
+      <c r="C110" s="1"/>
+      <c r="D110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="1">
         <v>0</v>
       </c>
-      <c r="G110" s="2"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="8"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="4"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1"/>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="10" t="s">
+      <c r="C111" s="1"/>
+      <c r="D111" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E111" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="2">
-        <v>2</v>
-      </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="8"/>
+      <c r="E111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="4"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1"/>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="10" t="s">
+      <c r="C112" s="1"/>
+      <c r="D112" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E112" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="2">
+      <c r="E112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="1">
         <v>3</v>
       </c>
-      <c r="G112" s="2"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="8"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="4"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1"/>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="14" t="s">
+      <c r="C113" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E113" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="6">
-        <v>2</v>
-      </c>
-      <c r="G113" s="2"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="8"/>
+      <c r="E113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="4"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1"/>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="14" t="s">
+      <c r="C114" s="1"/>
+      <c r="D114" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E114" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="6">
+      <c r="E114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="1">
         <v>1</v>
       </c>
-      <c r="G114" s="2"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="8"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="4"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1"/>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="14" t="s">
+      <c r="C115" s="1"/>
+      <c r="D115" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E115" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="6">
+      <c r="E115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="1">
         <v>1</v>
       </c>
-      <c r="G115" s="2"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="8"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="4"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1"/>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="14" t="s">
+      <c r="C116" s="1"/>
+      <c r="D116" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E116" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="6">
+      <c r="E116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="1">
         <v>1</v>
       </c>
-      <c r="G116" s="2"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="8"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="4"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1"/>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="2">
+      <c r="C117" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="1">
         <v>3</v>
       </c>
-      <c r="G117" s="2"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="8"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="4"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1"/>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="14" t="s">
+      <c r="C118" s="1"/>
+      <c r="D118" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E118" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="6">
-        <v>2</v>
-      </c>
-      <c r="G118" s="2"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="8"/>
+      <c r="E118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="1">
+        <v>2</v>
+      </c>
+      <c r="G118" s="1"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="4"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1"/>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="10" t="s">
+      <c r="C119" s="1"/>
+      <c r="D119" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="2">
-        <v>2</v>
-      </c>
-      <c r="G119" s="2"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="8"/>
+      <c r="E119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2</v>
+      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="4"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1"/>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="10" t="s">
+      <c r="C120" s="1"/>
+      <c r="D120" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E120" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="2">
-        <v>2</v>
-      </c>
-      <c r="G120" s="2"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="8"/>
+      <c r="E120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="1">
+        <v>2</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="4"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1"/>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="14" t="s">
+      <c r="C121" s="1"/>
+      <c r="D121" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E121" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="6">
+      <c r="E121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="1">
         <v>3</v>
       </c>
-      <c r="G121" s="2"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="8"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="4"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1"/>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="14" t="s">
+      <c r="C122" s="1"/>
+      <c r="D122" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E122" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="6">
+      <c r="E122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="1">
         <v>3</v>
       </c>
-      <c r="G122" s="2"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="8"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="4"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1"/>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="14" t="s">
+      <c r="C123" s="1"/>
+      <c r="D123" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E123" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="6">
+      <c r="E123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="1">
         <v>3</v>
       </c>
-      <c r="G123" s="2"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="8"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="4"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1"/>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="14" t="s">
+      <c r="C124" s="1"/>
+      <c r="D124" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="6">
+      <c r="E124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="1">
         <v>3</v>
       </c>
-      <c r="G124" s="2"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="8"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="4"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1"/>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="14" t="s">
+      <c r="C125" s="1"/>
+      <c r="D125" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E125" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="6">
+      <c r="E125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="1">
         <v>1</v>
       </c>
-      <c r="G125" s="2"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="8"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="4"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1"/>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="10" t="s">
+      <c r="C126" s="1"/>
+      <c r="D126" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E126" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="2">
+      <c r="E126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="1">
         <v>3</v>
       </c>
-      <c r="G126" s="2"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="8"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="4"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1"/>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="10" t="s">
+      <c r="C127" s="1"/>
+      <c r="D127" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E127" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="2">
-        <v>2</v>
-      </c>
-      <c r="G127" s="2"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="8"/>
+      <c r="E127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="1">
+        <v>2</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="4"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1"/>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="10" t="s">
+      <c r="C128" s="1"/>
+      <c r="D128" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E128" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="2">
+      <c r="E128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="1">
         <v>3</v>
       </c>
-      <c r="G128" s="2"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="8"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="4"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1"/>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="10" t="s">
+      <c r="C129" s="1"/>
+      <c r="D129" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E129" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="2">
-        <v>2</v>
-      </c>
-      <c r="G129" s="2"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="8"/>
+      <c r="E129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="1">
+        <v>2</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="4"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1"/>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="10" t="s">
+      <c r="C130" s="1"/>
+      <c r="D130" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E130" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" s="2">
+      <c r="E130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="1">
         <v>3</v>
       </c>
-      <c r="G130" s="2"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="8"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="4"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1"/>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="10" t="s">
+      <c r="C131" s="1"/>
+      <c r="D131" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E131" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="2">
-        <v>2</v>
-      </c>
-      <c r="G131" s="2"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="8"/>
+      <c r="E131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="1">
+        <v>2</v>
+      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="4"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="B134">
+      <c r="B134" s="5">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F131" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="Completed"/>
-        <filter val="covered"/>
-        <filter val="Planning-1"/>
-        <filter val="Planning-2"/>
-        <filter val="Planning-3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D133:D138">
     <sortCondition ref="D133"/>
   </sortState>
